--- a/assets/excel/61nolu.xlsx
+++ b/assets/excel/61nolu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahiratakancan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB42CEA-1DFF-E346-85B0-A7A1CE786174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855AD513-3DFF-C94E-ADE3-57E6711F7D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="23240" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="223" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,7 +1329,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
